--- a/team_specific_matrix/Georgia_A.xlsx
+++ b/team_specific_matrix/Georgia_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1941896024464832</v>
+        <v>0.1939759036144578</v>
       </c>
       <c r="C2">
-        <v>0.5703363914373089</v>
+        <v>0.5698795180722892</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.006116207951070336</v>
+        <v>0.008433734939759036</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1529051987767584</v>
+        <v>0.1457831325301205</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0764525993883792</v>
+        <v>0.0819277108433735</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007672634271099744</v>
+        <v>0.006085192697768763</v>
       </c>
       <c r="C3">
-        <v>0.03836317135549872</v>
+        <v>0.03651115618661258</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02557544757033248</v>
+        <v>0.03042596348884381</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.002557544757033248</v>
+        <v>0.002028397565922921</v>
       </c>
       <c r="P3">
-        <v>0.7493606138107417</v>
+        <v>0.742393509127789</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1764705882352941</v>
+        <v>0.1825557809330629</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06451612903225806</v>
+        <v>0.056</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="P4">
-        <v>0.6989247311827957</v>
+        <v>0.672</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2365591397849462</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07173913043478261</v>
+        <v>0.07419898819561552</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01739130434782609</v>
+        <v>0.01854974704890388</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06521739130434782</v>
+        <v>0.07419898819561552</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2108695652173913</v>
+        <v>0.2344013490725126</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02173913043478261</v>
+        <v>0.02360876897133221</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1434782608695652</v>
+        <v>0.1281618887015177</v>
       </c>
       <c r="R6">
-        <v>0.07608695652173914</v>
+        <v>0.06913996627318718</v>
       </c>
       <c r="S6">
-        <v>0.3934782608695652</v>
+        <v>0.3777403035413153</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1039823008849557</v>
+        <v>0.103202846975089</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02212389380530973</v>
+        <v>0.0195729537366548</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.001779359430604982</v>
       </c>
       <c r="F7">
-        <v>0.05752212389380531</v>
+        <v>0.05160142348754448</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1061946902654867</v>
+        <v>0.1138790035587189</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01548672566371681</v>
+        <v>0.01601423487544484</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1924778761061947</v>
+        <v>0.1903914590747331</v>
       </c>
       <c r="R7">
-        <v>0.07964601769911504</v>
+        <v>0.07651245551601424</v>
       </c>
       <c r="S7">
-        <v>0.4225663716814159</v>
+        <v>0.4270462633451957</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09911678115799803</v>
+        <v>0.09992132179386309</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01570166830225711</v>
+        <v>0.01730920535011802</v>
       </c>
       <c r="E8">
-        <v>0.0009813542688910696</v>
+        <v>0.0007867820613690008</v>
       </c>
       <c r="F8">
-        <v>0.0745829244357213</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1187438665358194</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01766437684003926</v>
+        <v>0.01888276947285602</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1736997055937193</v>
+        <v>0.1730920535011802</v>
       </c>
       <c r="R8">
-        <v>0.1010794896957802</v>
+        <v>0.09992132179386309</v>
       </c>
       <c r="S8">
-        <v>0.3984298331697743</v>
+        <v>0.3949645948072384</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08857808857808858</v>
+        <v>0.0928030303030303</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01864801864801865</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="E9">
-        <v>0.002331002331002331</v>
+        <v>0.001893939393939394</v>
       </c>
       <c r="F9">
-        <v>0.04195804195804196</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1188811188811189</v>
+        <v>0.1060606060606061</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02564102564102564</v>
+        <v>0.02651515151515152</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2027972027972028</v>
+        <v>0.2045454545454546</v>
       </c>
       <c r="R9">
-        <v>0.06526806526806526</v>
+        <v>0.07007575757575757</v>
       </c>
       <c r="S9">
-        <v>0.4358974358974359</v>
+        <v>0.4337121212121212</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1151695862840104</v>
+        <v>0.1139277389277389</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0193812896011927</v>
+        <v>0.02068764568764569</v>
       </c>
       <c r="E10">
-        <v>0.0003727171077152441</v>
+        <v>0.0002913752913752914</v>
       </c>
       <c r="F10">
-        <v>0.06187103988073053</v>
+        <v>0.06177156177156177</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1125605665300037</v>
+        <v>0.1206293706293706</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01863585538576221</v>
+        <v>0.01748251748251748</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1979127841967946</v>
+        <v>0.1963869463869464</v>
       </c>
       <c r="R10">
-        <v>0.09839731643682445</v>
+        <v>0.0944055944055944</v>
       </c>
       <c r="S10">
-        <v>0.3756988445769661</v>
+        <v>0.3744172494172494</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1306240928882438</v>
+        <v>0.1351981351981352</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08708272859216255</v>
+        <v>0.08741258741258741</v>
       </c>
       <c r="K11">
-        <v>0.1944847605224964</v>
+        <v>0.1958041958041958</v>
       </c>
       <c r="L11">
-        <v>0.5602322206095791</v>
+        <v>0.5571095571095571</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02757619738751814</v>
+        <v>0.02447552447552448</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.748780487804878</v>
+        <v>0.7435387673956262</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1780487804878049</v>
+        <v>0.1868787276341948</v>
       </c>
       <c r="K12">
-        <v>0.01219512195121951</v>
+        <v>0.009940357852882704</v>
       </c>
       <c r="L12">
-        <v>0.03414634146341464</v>
+        <v>0.03180914512922465</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02682926829268293</v>
+        <v>0.02783300198807157</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7452830188679245</v>
+        <v>0.7443609022556391</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2169811320754717</v>
+        <v>0.2180451127819549</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03773584905660377</v>
+        <v>0.03759398496240601</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,16 +1277,16 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.015625</v>
+        <v>0.01736111111111111</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1674107142857143</v>
+        <v>0.1614583333333333</v>
       </c>
       <c r="I15">
-        <v>0.05580357142857143</v>
+        <v>0.06076388888888889</v>
       </c>
       <c r="J15">
         <v>0.359375</v>
@@ -1298,13 +1298,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01785714285714286</v>
+        <v>0.015625</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06919642857142858</v>
+        <v>0.08159722222222222</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2522321428571428</v>
+        <v>0.2413194444444444</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02031602708803612</v>
+        <v>0.02338129496402878</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2054176072234763</v>
+        <v>0.1924460431654676</v>
       </c>
       <c r="I16">
-        <v>0.07223476297968397</v>
+        <v>0.06654676258992806</v>
       </c>
       <c r="J16">
-        <v>0.3747178329571106</v>
+        <v>0.3902877697841727</v>
       </c>
       <c r="K16">
-        <v>0.108352144469526</v>
+        <v>0.1043165467625899</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02934537246049661</v>
+        <v>0.02697841726618705</v>
       </c>
       <c r="N16">
-        <v>0.002257336343115124</v>
+        <v>0.001798561151079137</v>
       </c>
       <c r="O16">
-        <v>0.04966139954853273</v>
+        <v>0.05575539568345324</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1376975169300226</v>
+        <v>0.1384892086330935</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02205882352941177</v>
+        <v>0.02274641954507161</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1733193277310924</v>
+        <v>0.1760741364785173</v>
       </c>
       <c r="I17">
-        <v>0.1029411764705882</v>
+        <v>0.1061499578770008</v>
       </c>
       <c r="J17">
-        <v>0.4180672268907563</v>
+        <v>0.4161752316764954</v>
       </c>
       <c r="K17">
-        <v>0.09873949579831932</v>
+        <v>0.09856781802864364</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01365546218487395</v>
+        <v>0.0134793597304128</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05357142857142857</v>
+        <v>0.05560235888795282</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1176470588235294</v>
+        <v>0.1112047177759056</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01492537313432836</v>
+        <v>0.01565217391304348</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1833688699360341</v>
+        <v>0.1686956521739131</v>
       </c>
       <c r="I18">
-        <v>0.06609808102345416</v>
+        <v>0.07130434782608695</v>
       </c>
       <c r="J18">
-        <v>0.4115138592750533</v>
+        <v>0.4191304347826087</v>
       </c>
       <c r="K18">
-        <v>0.09594882729211088</v>
+        <v>0.09913043478260869</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02345415778251599</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.001739130434782609</v>
       </c>
       <c r="O18">
-        <v>0.05330490405117271</v>
+        <v>0.05043478260869565</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1513859275053305</v>
+        <v>0.1478260869565217</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01500348918353105</v>
+        <v>0.01700111482720178</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2135380321004885</v>
+        <v>0.2159977703455964</v>
       </c>
       <c r="I19">
-        <v>0.08339148639218423</v>
+        <v>0.0794314381270903</v>
       </c>
       <c r="J19">
-        <v>0.3531053733426378</v>
+        <v>0.3542363433667782</v>
       </c>
       <c r="K19">
-        <v>0.110258199581298</v>
+        <v>0.1103678929765886</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02128401953942777</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="N19">
-        <v>0.0006978367062107466</v>
+        <v>0.0005574136008918618</v>
       </c>
       <c r="O19">
-        <v>0.05861828332170272</v>
+        <v>0.05964325529542921</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1441032798325192</v>
+        <v>0.141025641025641</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Georgia_A.xlsx
+++ b/team_specific_matrix/Georgia_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1939759036144578</v>
+        <v>0.1920529801324503</v>
       </c>
       <c r="C2">
-        <v>0.5698795180722892</v>
+        <v>0.5750551876379691</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008433734939759036</v>
+        <v>0.008830022075055188</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1457831325301205</v>
+        <v>0.1445916114790287</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0819277108433735</v>
+        <v>0.07947019867549669</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006085192697768763</v>
+        <v>0.005514705882352942</v>
       </c>
       <c r="C3">
-        <v>0.03651115618661258</v>
+        <v>0.04044117647058824</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03042596348884381</v>
+        <v>0.03125</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.002028397565922921</v>
+        <v>0.001838235294117647</v>
       </c>
       <c r="P3">
-        <v>0.742393509127789</v>
+        <v>0.7463235294117647</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1825557809330629</v>
+        <v>0.1746323529411765</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.056</v>
+        <v>0.05223880597014925</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.008</v>
+        <v>0.007462686567164179</v>
       </c>
       <c r="P4">
-        <v>0.672</v>
+        <v>0.6716417910447762</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.264</v>
+        <v>0.2686567164179104</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07419898819561552</v>
+        <v>0.07401812688821752</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01854974704890388</v>
+        <v>0.01661631419939577</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07419898819561552</v>
+        <v>0.08006042296072508</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2344013490725126</v>
+        <v>0.2235649546827795</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02360876897133221</v>
+        <v>0.0256797583081571</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1281618887015177</v>
+        <v>0.1359516616314199</v>
       </c>
       <c r="R6">
-        <v>0.06913996627318718</v>
+        <v>0.06646525679758308</v>
       </c>
       <c r="S6">
-        <v>0.3777403035413153</v>
+        <v>0.3776435045317221</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.103202846975089</v>
+        <v>0.09967320261437909</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0195729537366548</v>
+        <v>0.01797385620915033</v>
       </c>
       <c r="E7">
-        <v>0.001779359430604982</v>
+        <v>0.001633986928104575</v>
       </c>
       <c r="F7">
-        <v>0.05160142348754448</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1138790035587189</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01601423487544484</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1903914590747331</v>
+        <v>0.184640522875817</v>
       </c>
       <c r="R7">
-        <v>0.07651245551601424</v>
+        <v>0.08006535947712418</v>
       </c>
       <c r="S7">
-        <v>0.4270462633451957</v>
+        <v>0.4313725490196079</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09992132179386309</v>
+        <v>0.09878310665712241</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01730920535011802</v>
+        <v>0.0164638511095204</v>
       </c>
       <c r="E8">
-        <v>0.0007867820613690008</v>
+        <v>0.001431639226914817</v>
       </c>
       <c r="F8">
-        <v>0.07317073170731707</v>
+        <v>0.06943450250536864</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1219512195121951</v>
+        <v>0.1224051539012169</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01888276947285602</v>
+        <v>0.01717967072297781</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1730920535011802</v>
+        <v>0.1703650680028633</v>
       </c>
       <c r="R8">
-        <v>0.09992132179386309</v>
+        <v>0.101646385110952</v>
       </c>
       <c r="S8">
-        <v>0.3949645948072384</v>
+        <v>0.4022906227630637</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0928030303030303</v>
+        <v>0.09105960264900662</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02272727272727273</v>
+        <v>0.02317880794701987</v>
       </c>
       <c r="E9">
-        <v>0.001893939393939394</v>
+        <v>0.001655629139072848</v>
       </c>
       <c r="F9">
-        <v>0.04166666666666666</v>
+        <v>0.04304635761589404</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1060606060606061</v>
+        <v>0.1059602649006623</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02651515151515152</v>
+        <v>0.02317880794701987</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2045454545454546</v>
+        <v>0.2036423841059603</v>
       </c>
       <c r="R9">
-        <v>0.07007575757575757</v>
+        <v>0.07450331125827815</v>
       </c>
       <c r="S9">
-        <v>0.4337121212121212</v>
+        <v>0.4337748344370861</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1139277389277389</v>
+        <v>0.1127243928194298</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02068764568764569</v>
+        <v>0.02006335797254488</v>
       </c>
       <c r="E10">
-        <v>0.0002913752913752914</v>
+        <v>0.0002639915522703273</v>
       </c>
       <c r="F10">
-        <v>0.06177156177156177</v>
+        <v>0.06256599788806758</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1206293706293706</v>
+        <v>0.1217001055966209</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01748251748251748</v>
+        <v>0.01663146779303062</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1963869463869464</v>
+        <v>0.1979936642027455</v>
       </c>
       <c r="R10">
-        <v>0.0944055944055944</v>
+        <v>0.09371700105596621</v>
       </c>
       <c r="S10">
-        <v>0.3744172494172494</v>
+        <v>0.3743400211193242</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1351981351981352</v>
+        <v>0.1313240043057051</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08741258741258741</v>
+        <v>0.08826695371367062</v>
       </c>
       <c r="K11">
-        <v>0.1958041958041958</v>
+        <v>0.1926803013993541</v>
       </c>
       <c r="L11">
-        <v>0.5571095571095571</v>
+        <v>0.5640473627556513</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02447552447552448</v>
+        <v>0.02368137782561894</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7435387673956262</v>
+        <v>0.7522768670309654</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1868787276341948</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="K12">
-        <v>0.009940357852882704</v>
+        <v>0.009107468123861567</v>
       </c>
       <c r="L12">
-        <v>0.03180914512922465</v>
+        <v>0.03096539162112933</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02783300198807157</v>
+        <v>0.0273224043715847</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7443609022556391</v>
+        <v>0.7191780821917808</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2180451127819549</v>
+        <v>0.2465753424657534</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03759398496240601</v>
+        <v>0.03424657534246575</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01736111111111111</v>
+        <v>0.0189873417721519</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1614583333333333</v>
+        <v>0.1645569620253164</v>
       </c>
       <c r="I15">
-        <v>0.06076388888888889</v>
+        <v>0.06487341772151899</v>
       </c>
       <c r="J15">
-        <v>0.359375</v>
+        <v>0.3639240506329114</v>
       </c>
       <c r="K15">
-        <v>0.0625</v>
+        <v>0.05854430379746835</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.015625</v>
+        <v>0.01424050632911392</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08159722222222222</v>
+        <v>0.07911392405063292</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2413194444444444</v>
+        <v>0.2357594936708861</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02338129496402878</v>
+        <v>0.02283849918433932</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1924460431654676</v>
+        <v>0.1908646003262643</v>
       </c>
       <c r="I16">
-        <v>0.06654676258992806</v>
+        <v>0.0701468189233279</v>
       </c>
       <c r="J16">
-        <v>0.3902877697841727</v>
+        <v>0.3866231647634584</v>
       </c>
       <c r="K16">
-        <v>0.1043165467625899</v>
+        <v>0.1092985318107667</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02697841726618705</v>
+        <v>0.02446982055464927</v>
       </c>
       <c r="N16">
-        <v>0.001798561151079137</v>
+        <v>0.001631321370309951</v>
       </c>
       <c r="O16">
-        <v>0.05575539568345324</v>
+        <v>0.05383360522022838</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1384892086330935</v>
+        <v>0.1402936378466558</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02274641954507161</v>
+        <v>0.02132520944402132</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1760741364785173</v>
+        <v>0.1751713632901752</v>
       </c>
       <c r="I17">
-        <v>0.1061499578770008</v>
+        <v>0.1089108910891089</v>
       </c>
       <c r="J17">
-        <v>0.4161752316764954</v>
+        <v>0.4143183549124143</v>
       </c>
       <c r="K17">
-        <v>0.09856781802864364</v>
+        <v>0.09672505712109672</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0134793597304128</v>
+        <v>0.01294744859101295</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05560235888795282</v>
+        <v>0.0594059405940594</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1112047177759056</v>
+        <v>0.1111957349581112</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01565217391304348</v>
+        <v>0.01567398119122257</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1686956521739131</v>
+        <v>0.170846394984326</v>
       </c>
       <c r="I18">
-        <v>0.07130434782608695</v>
+        <v>0.07680250783699059</v>
       </c>
       <c r="J18">
-        <v>0.4191304347826087</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="K18">
-        <v>0.09913043478260869</v>
+        <v>0.09404388714733543</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02608695652173913</v>
+        <v>0.02821316614420063</v>
       </c>
       <c r="N18">
-        <v>0.001739130434782609</v>
+        <v>0.001567398119122257</v>
       </c>
       <c r="O18">
-        <v>0.05043478260869565</v>
+        <v>0.054858934169279</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1478260869565217</v>
+        <v>0.1442006269592477</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01700111482720178</v>
+        <v>0.0166835187057634</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2159977703455964</v>
+        <v>0.2143579373104146</v>
       </c>
       <c r="I19">
-        <v>0.0794314381270903</v>
+        <v>0.08190091001011122</v>
       </c>
       <c r="J19">
-        <v>0.3542363433667782</v>
+        <v>0.3561678463094035</v>
       </c>
       <c r="K19">
-        <v>0.1103678929765886</v>
+        <v>0.109201213346815</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02173913043478261</v>
+        <v>0.02199191102123357</v>
       </c>
       <c r="N19">
-        <v>0.0005574136008918618</v>
+        <v>0.001011122345803842</v>
       </c>
       <c r="O19">
-        <v>0.05964325529542921</v>
+        <v>0.05915065722952477</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.141025641025641</v>
+        <v>0.1395348837209302</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Georgia_A.xlsx
+++ b/team_specific_matrix/Georgia_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1920529801324503</v>
+        <v>0.1910480349344978</v>
       </c>
       <c r="C2">
-        <v>0.5750551876379691</v>
+        <v>0.5764192139737991</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008830022075055188</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1445916114790287</v>
+        <v>0.1451965065502183</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07947019867549669</v>
+        <v>0.07860262008733625</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005514705882352942</v>
+        <v>0.007246376811594203</v>
       </c>
       <c r="C3">
-        <v>0.04044117647058824</v>
+        <v>0.03985507246376811</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03125</v>
+        <v>0.03079710144927536</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.001838235294117647</v>
+        <v>0.001811594202898551</v>
       </c>
       <c r="P3">
-        <v>0.7463235294117647</v>
+        <v>0.7481884057971014</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1746323529411765</v>
+        <v>0.1721014492753623</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07401812688821752</v>
+        <v>0.0746705710102489</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01661631419939577</v>
+        <v>0.01610541727672035</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08006042296072508</v>
+        <v>0.08345534407027819</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2235649546827795</v>
+        <v>0.2210834553440703</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0256797583081571</v>
+        <v>0.02489019033674963</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1359516616314199</v>
+        <v>0.1376281112737921</v>
       </c>
       <c r="R6">
-        <v>0.06646525679758308</v>
+        <v>0.06734992679355783</v>
       </c>
       <c r="S6">
-        <v>0.3776435045317221</v>
+        <v>0.3748169838945827</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09967320261437909</v>
+        <v>0.0992</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01797385620915033</v>
+        <v>0.0176</v>
       </c>
       <c r="E7">
-        <v>0.001633986928104575</v>
+        <v>0.0016</v>
       </c>
       <c r="F7">
-        <v>0.05882352941176471</v>
+        <v>0.0608</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1111111111111111</v>
+        <v>0.1104</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01470588235294118</v>
+        <v>0.0144</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.184640522875817</v>
+        <v>0.184</v>
       </c>
       <c r="R7">
-        <v>0.08006535947712418</v>
+        <v>0.0784</v>
       </c>
       <c r="S7">
-        <v>0.4313725490196079</v>
+        <v>0.4336</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09878310665712241</v>
+        <v>0.0972027972027972</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0164638511095204</v>
+        <v>0.01608391608391608</v>
       </c>
       <c r="E8">
-        <v>0.001431639226914817</v>
+        <v>0.001398601398601399</v>
       </c>
       <c r="F8">
-        <v>0.06943450250536864</v>
+        <v>0.06993006993006994</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1224051539012169</v>
+        <v>0.1223776223776224</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01717967072297781</v>
+        <v>0.01678321678321678</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1703650680028633</v>
+        <v>0.1727272727272727</v>
       </c>
       <c r="R8">
-        <v>0.101646385110952</v>
+        <v>0.1</v>
       </c>
       <c r="S8">
-        <v>0.4022906227630637</v>
+        <v>0.4034965034965035</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09105960264900662</v>
+        <v>0.09298531810766721</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02317880794701987</v>
+        <v>0.02283849918433932</v>
       </c>
       <c r="E9">
-        <v>0.001655629139072848</v>
+        <v>0.001631321370309951</v>
       </c>
       <c r="F9">
-        <v>0.04304635761589404</v>
+        <v>0.04404567699836868</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1059602649006623</v>
+        <v>0.1076672104404568</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02317880794701987</v>
+        <v>0.02283849918433932</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2036423841059603</v>
+        <v>0.2022838499184339</v>
       </c>
       <c r="R9">
-        <v>0.07450331125827815</v>
+        <v>0.07340946166394779</v>
       </c>
       <c r="S9">
-        <v>0.4337748344370861</v>
+        <v>0.432300163132137</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1127243928194298</v>
+        <v>0.1107668474051123</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02006335797254488</v>
+        <v>0.01962303124193132</v>
       </c>
       <c r="E10">
-        <v>0.0002639915522703273</v>
+        <v>0.0002581977794990963</v>
       </c>
       <c r="F10">
-        <v>0.06256599788806758</v>
+        <v>0.0630002581977795</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1217001055966209</v>
+        <v>0.1210947585850762</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01663146779303062</v>
+        <v>0.01652465788794216</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1979936642027455</v>
+        <v>0.1995868835528014</v>
       </c>
       <c r="R10">
-        <v>0.09371700105596621</v>
+        <v>0.09450038729666925</v>
       </c>
       <c r="S10">
-        <v>0.3743400211193242</v>
+        <v>0.3746449780531887</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1313240043057051</v>
+        <v>0.1322751322751323</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08826695371367062</v>
+        <v>0.08677248677248678</v>
       </c>
       <c r="K11">
-        <v>0.1926803013993541</v>
+        <v>0.1915343915343915</v>
       </c>
       <c r="L11">
-        <v>0.5640473627556513</v>
+        <v>0.5661375661375662</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02368137782561894</v>
+        <v>0.02328042328042328</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7522768670309654</v>
+        <v>0.7522281639928698</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.180327868852459</v>
+        <v>0.17825311942959</v>
       </c>
       <c r="K12">
-        <v>0.009107468123861567</v>
+        <v>0.0106951871657754</v>
       </c>
       <c r="L12">
-        <v>0.03096539162112933</v>
+        <v>0.03208556149732621</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0273224043715847</v>
+        <v>0.0267379679144385</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7191780821917808</v>
+        <v>0.72</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2465753424657534</v>
+        <v>0.2466666666666667</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03424657534246575</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0189873417721519</v>
+        <v>0.01863354037267081</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1645569620253164</v>
+        <v>0.1630434782608696</v>
       </c>
       <c r="I15">
-        <v>0.06487341772151899</v>
+        <v>0.06366459627329192</v>
       </c>
       <c r="J15">
-        <v>0.3639240506329114</v>
+        <v>0.3633540372670808</v>
       </c>
       <c r="K15">
-        <v>0.05854430379746835</v>
+        <v>0.06211180124223602</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01424050632911392</v>
+        <v>0.01397515527950311</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07911392405063292</v>
+        <v>0.08074534161490683</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2357594936708861</v>
+        <v>0.234472049689441</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02283849918433932</v>
+        <v>0.02254428341384863</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1908646003262643</v>
+        <v>0.1932367149758454</v>
       </c>
       <c r="I16">
-        <v>0.0701468189233279</v>
+        <v>0.07246376811594203</v>
       </c>
       <c r="J16">
-        <v>0.3866231647634584</v>
+        <v>0.3848631239935588</v>
       </c>
       <c r="K16">
-        <v>0.1092985318107667</v>
+        <v>0.107890499194847</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02446982055464927</v>
+        <v>0.02415458937198068</v>
       </c>
       <c r="N16">
-        <v>0.001631321370309951</v>
+        <v>0.001610305958132045</v>
       </c>
       <c r="O16">
-        <v>0.05383360522022838</v>
+        <v>0.05475040257648953</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1402936378466558</v>
+        <v>0.1384863123993559</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02132520944402132</v>
+        <v>0.02071005917159763</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1751713632901752</v>
+        <v>0.1767751479289941</v>
       </c>
       <c r="I17">
-        <v>0.1089108910891089</v>
+        <v>0.1079881656804734</v>
       </c>
       <c r="J17">
-        <v>0.4143183549124143</v>
+        <v>0.4149408284023668</v>
       </c>
       <c r="K17">
-        <v>0.09672505712109672</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01294744859101295</v>
+        <v>0.01257396449704142</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0594059405940594</v>
+        <v>0.05917159763313609</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1111957349581112</v>
+        <v>0.1116863905325444</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01567398119122257</v>
+        <v>0.01533742331288344</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.170846394984326</v>
+        <v>0.1733128834355828</v>
       </c>
       <c r="I18">
-        <v>0.07680250783699059</v>
+        <v>0.07515337423312883</v>
       </c>
       <c r="J18">
-        <v>0.4137931034482759</v>
+        <v>0.4141104294478528</v>
       </c>
       <c r="K18">
-        <v>0.09404388714733543</v>
+        <v>0.09355828220858896</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02821316614420063</v>
+        <v>0.02760736196319018</v>
       </c>
       <c r="N18">
-        <v>0.001567398119122257</v>
+        <v>0.001533742331288344</v>
       </c>
       <c r="O18">
-        <v>0.054858934169279</v>
+        <v>0.05521472392638037</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1442006269592477</v>
+        <v>0.1441717791411043</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0166835187057634</v>
+        <v>0.01709189992568739</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2143579373104146</v>
+        <v>0.2142680208075304</v>
       </c>
       <c r="I19">
-        <v>0.08190091001011122</v>
+        <v>0.08100074312608373</v>
       </c>
       <c r="J19">
-        <v>0.3561678463094035</v>
+        <v>0.3584344810502849</v>
       </c>
       <c r="K19">
-        <v>0.109201213346815</v>
+        <v>0.1082486995293535</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02199191102123357</v>
+        <v>0.02254149120634134</v>
       </c>
       <c r="N19">
-        <v>0.001011122345803842</v>
+        <v>0.0009908347783007183</v>
       </c>
       <c r="O19">
-        <v>0.05915065722952477</v>
+        <v>0.05870696061431756</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1395348837209302</v>
+        <v>0.1387168689621006</v>
       </c>
     </row>
   </sheetData>
